--- a/month_sum(total).xlsx
+++ b/month_sum(total).xlsx
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E22" t="n">
-        <v>11581</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="23">
@@ -875,7 +875,7 @@
         <v>236</v>
       </c>
       <c r="E23" t="n">
-        <v>11817</v>
+        <v>11816</v>
       </c>
     </row>
     <row r="24">
@@ -894,7 +894,7 @@
         <v>1284</v>
       </c>
       <c r="E24" t="n">
-        <v>13101</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="25">
@@ -913,7 +913,7 @@
         <v>228</v>
       </c>
       <c r="E25" t="n">
-        <v>13329</v>
+        <v>13328</v>
       </c>
     </row>
     <row r="26">
@@ -932,7 +932,7 @@
         <v>241</v>
       </c>
       <c r="E26" t="n">
-        <v>13570</v>
+        <v>13569</v>
       </c>
     </row>
     <row r="27">
@@ -951,7 +951,7 @@
         <v>358</v>
       </c>
       <c r="E27" t="n">
-        <v>13928</v>
+        <v>13927</v>
       </c>
     </row>
     <row r="28">
@@ -970,7 +970,7 @@
         <v>309</v>
       </c>
       <c r="E28" t="n">
-        <v>14237</v>
+        <v>14236</v>
       </c>
     </row>
     <row r="29">
@@ -989,7 +989,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="n">
-        <v>14394</v>
+        <v>14393</v>
       </c>
     </row>
     <row r="30">
@@ -1008,7 +1008,7 @@
         <v>81</v>
       </c>
       <c r="E30" t="n">
-        <v>14475</v>
+        <v>14474</v>
       </c>
     </row>
     <row r="31">
@@ -1027,7 +1027,7 @@
         <v>640</v>
       </c>
       <c r="E31" t="n">
-        <v>15115</v>
+        <v>15114</v>
       </c>
     </row>
     <row r="32">
@@ -1046,7 +1046,7 @@
         <v>441</v>
       </c>
       <c r="E32" t="n">
-        <v>15556</v>
+        <v>15555</v>
       </c>
     </row>
     <row r="33">
@@ -1065,7 +1065,7 @@
         <v>572</v>
       </c>
       <c r="E33" t="n">
-        <v>16128</v>
+        <v>16127</v>
       </c>
     </row>
     <row r="34">
@@ -1084,7 +1084,7 @@
         <v>592</v>
       </c>
       <c r="E34" t="n">
-        <v>16720</v>
+        <v>16719</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C35" t="n">
         <v>131</v>
       </c>
       <c r="D35" t="n">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E35" t="n">
-        <v>17135</v>
+        <v>17131</v>
       </c>
     </row>
     <row r="36">
@@ -1122,7 +1122,7 @@
         <v>263</v>
       </c>
       <c r="E36" t="n">
-        <v>17398</v>
+        <v>17394</v>
       </c>
     </row>
     <row r="37">
@@ -1141,7 +1141,7 @@
         <v>1382</v>
       </c>
       <c r="E37" t="n">
-        <v>18780</v>
+        <v>18776</v>
       </c>
     </row>
     <row r="38">
@@ -1160,7 +1160,7 @@
         <v>1723</v>
       </c>
       <c r="E38" t="n">
-        <v>20503</v>
+        <v>20499</v>
       </c>
     </row>
     <row r="39">
@@ -1179,7 +1179,7 @@
         <v>67</v>
       </c>
       <c r="E39" t="n">
-        <v>20570</v>
+        <v>20566</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C40" t="n">
         <v>340</v>
       </c>
       <c r="D40" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E40" t="n">
-        <v>20878</v>
+        <v>20875</v>
       </c>
     </row>
     <row r="41">
@@ -1217,7 +1217,7 @@
         <v>432</v>
       </c>
       <c r="E41" t="n">
-        <v>21310</v>
+        <v>21307</v>
       </c>
     </row>
     <row r="42">
@@ -1236,7 +1236,7 @@
         <v>478</v>
       </c>
       <c r="E42" t="n">
-        <v>21788</v>
+        <v>21785</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C43" t="n">
         <v>507</v>
       </c>
       <c r="D43" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E43" t="n">
-        <v>22041</v>
+        <v>22037</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C44" t="n">
         <v>523</v>
       </c>
       <c r="D44" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" t="n">
-        <v>22142</v>
+        <v>22136</v>
       </c>
     </row>
     <row r="45">
@@ -1293,7 +1293,7 @@
         <v>-164</v>
       </c>
       <c r="E45" t="n">
-        <v>21978</v>
+        <v>21972</v>
       </c>
     </row>
     <row r="46">
@@ -1312,7 +1312,7 @@
         <v>-142</v>
       </c>
       <c r="E46" t="n">
-        <v>21836</v>
+        <v>21830</v>
       </c>
     </row>
     <row r="47">
@@ -1331,7 +1331,7 @@
         <v>-183</v>
       </c>
       <c r="E47" t="n">
-        <v>21653</v>
+        <v>21647</v>
       </c>
     </row>
     <row r="48">
@@ -1350,7 +1350,7 @@
         <v>-447</v>
       </c>
       <c r="E48" t="n">
-        <v>21206</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="49">
@@ -1369,7 +1369,7 @@
         <v>-45</v>
       </c>
       <c r="E49" t="n">
-        <v>21161</v>
+        <v>21155</v>
       </c>
     </row>
     <row r="50">
@@ -1388,7 +1388,7 @@
         <v>96</v>
       </c>
       <c r="E50" t="n">
-        <v>21257</v>
+        <v>21251</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C51" t="n">
         <v>1323</v>
       </c>
       <c r="D51" t="n">
-        <v>-923</v>
+        <v>-922</v>
       </c>
       <c r="E51" t="n">
-        <v>20334</v>
+        <v>20329</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C52" t="n">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="D52" t="n">
-        <v>-3487</v>
+        <v>-3484</v>
       </c>
       <c r="E52" t="n">
-        <v>16847</v>
+        <v>16845</v>
       </c>
     </row>
     <row r="53">
@@ -1439,13 +1439,13 @@
         <v>654</v>
       </c>
       <c r="C53" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D53" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E53" t="n">
-        <v>17020</v>
+        <v>17019</v>
       </c>
     </row>
     <row r="54">
@@ -1464,7 +1464,7 @@
         <v>495</v>
       </c>
       <c r="E54" t="n">
-        <v>17515</v>
+        <v>17514</v>
       </c>
     </row>
     <row r="55">
@@ -1483,7 +1483,7 @@
         <v>520</v>
       </c>
       <c r="E55" t="n">
-        <v>18035</v>
+        <v>18034</v>
       </c>
     </row>
     <row r="56">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C56" t="n">
         <v>270</v>
       </c>
       <c r="D56" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E56" t="n">
         <v>18334</v>
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="C58" t="n">
         <v>330</v>
       </c>
       <c r="D58" t="n">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="E58" t="n">
-        <v>21422</v>
+        <v>21436</v>
       </c>
     </row>
     <row r="59">
@@ -1559,7 +1559,7 @@
         <v>1360</v>
       </c>
       <c r="E59" t="n">
-        <v>22782</v>
+        <v>22796</v>
       </c>
     </row>
     <row r="60">
@@ -1578,7 +1578,7 @@
         <v>895</v>
       </c>
       <c r="E60" t="n">
-        <v>23677</v>
+        <v>23691</v>
       </c>
     </row>
     <row r="61">
@@ -1597,7 +1597,7 @@
         <v>919</v>
       </c>
       <c r="E61" t="n">
-        <v>24596</v>
+        <v>24610</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C62" t="n">
         <v>336</v>
       </c>
       <c r="D62" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E62" t="n">
-        <v>25584</v>
+        <v>25599</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="C63" t="n">
         <v>649</v>
       </c>
       <c r="D63" t="n">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="E63" t="n">
-        <v>27361</v>
+        <v>27377</v>
       </c>
     </row>
     <row r="64">
@@ -1654,7 +1654,7 @@
         <v>1712</v>
       </c>
       <c r="E64" t="n">
-        <v>29073</v>
+        <v>29089</v>
       </c>
     </row>
     <row r="65">
@@ -1673,7 +1673,7 @@
         <v>846</v>
       </c>
       <c r="E65" t="n">
-        <v>29919</v>
+        <v>29935</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="C66" t="n">
         <v>910</v>
       </c>
       <c r="D66" t="n">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="E66" t="n">
-        <v>31719</v>
+        <v>31736</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C67" t="n">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D67" t="n">
         <v>171</v>
       </c>
       <c r="E67" t="n">
-        <v>31890</v>
+        <v>31907</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="C68" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D68" t="n">
         <v>2285</v>
       </c>
       <c r="E68" t="n">
-        <v>34175</v>
+        <v>34192</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2623</v>
+        <v>2616</v>
       </c>
       <c r="C69" t="n">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D69" t="n">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="E69" t="n">
-        <v>35991</v>
+        <v>36009</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3549</v>
+        <v>3532</v>
       </c>
       <c r="C70" t="n">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="D70" t="n">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="E70" t="n">
-        <v>38754</v>
+        <v>38771</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4115</v>
+        <v>4101</v>
       </c>
       <c r="C71" t="n">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="D71" t="n">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="E71" t="n">
-        <v>41770</v>
+        <v>41788</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2937</v>
+        <v>2927</v>
       </c>
       <c r="C72" t="n">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="D72" t="n">
         <v>1904</v>
       </c>
       <c r="E72" t="n">
-        <v>43674</v>
+        <v>43692</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3526</v>
+        <v>3515</v>
       </c>
       <c r="C73" t="n">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="D73" t="n">
         <v>2598</v>
       </c>
       <c r="E73" t="n">
-        <v>46272</v>
+        <v>46290</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4999</v>
+        <v>4992</v>
       </c>
       <c r="C74" t="n">
-        <v>2227</v>
+        <v>2220</v>
       </c>
       <c r="D74" t="n">
         <v>2772</v>
       </c>
       <c r="E74" t="n">
-        <v>49044</v>
+        <v>49062</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3570</v>
+        <v>3557</v>
       </c>
       <c r="C75" t="n">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="D75" t="n">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="E75" t="n">
-        <v>51167</v>
+        <v>51183</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3339</v>
+        <v>3197</v>
       </c>
       <c r="C76" t="n">
-        <v>1219</v>
+        <v>1075</v>
       </c>
       <c r="D76" t="n">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="E76" t="n">
-        <v>53287</v>
+        <v>53305</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3881</v>
+        <v>3868</v>
       </c>
       <c r="C77" t="n">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="D77" t="n">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="E77" t="n">
-        <v>56184</v>
+        <v>56205</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5651</v>
+        <v>5632</v>
       </c>
       <c r="C78" t="n">
-        <v>2277</v>
+        <v>2262</v>
       </c>
       <c r="D78" t="n">
-        <v>3374</v>
+        <v>3370</v>
       </c>
       <c r="E78" t="n">
-        <v>59558</v>
+        <v>59575</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4057</v>
+        <v>4041</v>
       </c>
       <c r="C79" t="n">
-        <v>1154</v>
+        <v>1132</v>
       </c>
       <c r="D79" t="n">
-        <v>2903</v>
+        <v>2909</v>
       </c>
       <c r="E79" t="n">
-        <v>62461</v>
+        <v>62484</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6295</v>
+        <v>6280</v>
       </c>
       <c r="C80" t="n">
-        <v>1370</v>
+        <v>1354</v>
       </c>
       <c r="D80" t="n">
-        <v>4925</v>
+        <v>4926</v>
       </c>
       <c r="E80" t="n">
-        <v>67386</v>
+        <v>67410</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6428</v>
+        <v>6407</v>
       </c>
       <c r="C81" t="n">
-        <v>1601</v>
+        <v>1576</v>
       </c>
       <c r="D81" t="n">
-        <v>4827</v>
+        <v>4831</v>
       </c>
       <c r="E81" t="n">
-        <v>72213</v>
+        <v>72241</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3687</v>
+        <v>3676</v>
       </c>
       <c r="C82" t="n">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="D82" t="n">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="E82" t="n">
-        <v>74864</v>
+        <v>74891</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3817</v>
+        <v>3793</v>
       </c>
       <c r="C83" t="n">
-        <v>1246</v>
+        <v>1223</v>
       </c>
       <c r="D83" t="n">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="E83" t="n">
-        <v>77435</v>
+        <v>77461</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3834</v>
+        <v>3799</v>
       </c>
       <c r="C84" t="n">
-        <v>1199</v>
+        <v>1160</v>
       </c>
       <c r="D84" t="n">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="E84" t="n">
-        <v>80070</v>
+        <v>80100</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3428</v>
+        <v>3412</v>
       </c>
       <c r="C85" t="n">
-        <v>1379</v>
+        <v>1361</v>
       </c>
       <c r="D85" t="n">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="E85" t="n">
-        <v>82119</v>
+        <v>82151</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2644</v>
+        <v>2615</v>
       </c>
       <c r="C86" t="n">
-        <v>1709</v>
+        <v>1580</v>
       </c>
       <c r="D86" t="n">
-        <v>935</v>
+        <v>1035</v>
       </c>
       <c r="E86" t="n">
-        <v>83054</v>
+        <v>83186</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2600</v>
+        <v>2570</v>
       </c>
       <c r="C87" t="n">
-        <v>1297</v>
+        <v>1268</v>
       </c>
       <c r="D87" t="n">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E87" t="n">
-        <v>84357</v>
+        <v>84488</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4025</v>
+        <v>4010</v>
       </c>
       <c r="C88" t="n">
-        <v>2235</v>
+        <v>2257</v>
       </c>
       <c r="D88" t="n">
-        <v>1790</v>
+        <v>1753</v>
       </c>
       <c r="E88" t="n">
-        <v>86147</v>
+        <v>86241</v>
       </c>
     </row>
     <row r="89">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1123</v>
+        <v>2322</v>
       </c>
       <c r="C89" t="n">
-        <v>557</v>
+        <v>971</v>
       </c>
       <c r="D89" t="n">
-        <v>566</v>
+        <v>1351</v>
       </c>
       <c r="E89" t="n">
-        <v>86713</v>
+        <v>87592</v>
       </c>
     </row>
     <row r="90">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>136441</v>
+        <v>137187</v>
       </c>
       <c r="C90" t="n">
-        <v>49728</v>
+        <v>49595</v>
       </c>
       <c r="D90" t="n">
-        <v>86713</v>
+        <v>87592</v>
       </c>
       <c r="E90" t="n">
-        <v>173426</v>
+        <v>175184</v>
       </c>
     </row>
   </sheetData>

--- a/month_sum(total).xlsx
+++ b/month_sum(total).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4월자료" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>신규장착대수</t>
+          <t>장착대수</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C33" t="n">
         <v>148</v>
       </c>
       <c r="D33" t="n">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E33" t="n">
-        <v>16127</v>
+        <v>16126</v>
       </c>
     </row>
     <row r="34">
@@ -1084,7 +1084,7 @@
         <v>592</v>
       </c>
       <c r="E34" t="n">
-        <v>16719</v>
+        <v>16718</v>
       </c>
     </row>
     <row r="35">
@@ -1103,7 +1103,7 @@
         <v>412</v>
       </c>
       <c r="E35" t="n">
-        <v>17131</v>
+        <v>17130</v>
       </c>
     </row>
     <row r="36">
@@ -1122,7 +1122,7 @@
         <v>263</v>
       </c>
       <c r="E36" t="n">
-        <v>17394</v>
+        <v>17393</v>
       </c>
     </row>
     <row r="37">
@@ -1141,7 +1141,7 @@
         <v>1382</v>
       </c>
       <c r="E37" t="n">
-        <v>18776</v>
+        <v>18775</v>
       </c>
     </row>
     <row r="38">
@@ -1160,7 +1160,7 @@
         <v>1723</v>
       </c>
       <c r="E38" t="n">
-        <v>20499</v>
+        <v>20498</v>
       </c>
     </row>
     <row r="39">
@@ -1179,7 +1179,7 @@
         <v>67</v>
       </c>
       <c r="E39" t="n">
-        <v>20566</v>
+        <v>20565</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C40" t="n">
         <v>340</v>
       </c>
       <c r="D40" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E40" t="n">
-        <v>20875</v>
+        <v>20878</v>
       </c>
     </row>
     <row r="41">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C41" t="n">
         <v>164</v>
       </c>
       <c r="D41" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E41" t="n">
-        <v>21307</v>
+        <v>21311</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C42" t="n">
         <v>211</v>
       </c>
       <c r="D42" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E42" t="n">
-        <v>21785</v>
+        <v>21790</v>
       </c>
     </row>
     <row r="43">
@@ -1255,7 +1255,7 @@
         <v>252</v>
       </c>
       <c r="E43" t="n">
-        <v>22037</v>
+        <v>22042</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C44" t="n">
         <v>523</v>
       </c>
       <c r="D44" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>22136</v>
+        <v>22142</v>
       </c>
     </row>
     <row r="45">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C45" t="n">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D45" t="n">
-        <v>-164</v>
+        <v>-161</v>
       </c>
       <c r="E45" t="n">
-        <v>21972</v>
+        <v>21981</v>
       </c>
     </row>
     <row r="46">
@@ -1312,7 +1312,7 @@
         <v>-142</v>
       </c>
       <c r="E46" t="n">
-        <v>21830</v>
+        <v>21839</v>
       </c>
     </row>
     <row r="47">
@@ -1331,7 +1331,7 @@
         <v>-183</v>
       </c>
       <c r="E47" t="n">
-        <v>21647</v>
+        <v>21656</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C48" t="n">
         <v>707</v>
       </c>
       <c r="D48" t="n">
-        <v>-447</v>
+        <v>-448</v>
       </c>
       <c r="E48" t="n">
-        <v>21200</v>
+        <v>21208</v>
       </c>
     </row>
     <row r="49">
@@ -1369,7 +1369,7 @@
         <v>-45</v>
       </c>
       <c r="E49" t="n">
-        <v>21155</v>
+        <v>21163</v>
       </c>
     </row>
     <row r="50">
@@ -1382,13 +1382,13 @@
         <v>517</v>
       </c>
       <c r="C50" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D50" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E50" t="n">
-        <v>21251</v>
+        <v>21260</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C51" t="n">
         <v>1323</v>
       </c>
       <c r="D51" t="n">
-        <v>-922</v>
+        <v>-924</v>
       </c>
       <c r="E51" t="n">
-        <v>20329</v>
+        <v>20336</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C52" t="n">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="D52" t="n">
-        <v>-3484</v>
+        <v>-3478</v>
       </c>
       <c r="E52" t="n">
-        <v>16845</v>
+        <v>16858</v>
       </c>
     </row>
     <row r="53">
@@ -1439,13 +1439,13 @@
         <v>654</v>
       </c>
       <c r="C53" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D53" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E53" t="n">
-        <v>17019</v>
+        <v>17035</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C54" t="n">
         <v>284</v>
       </c>
       <c r="D54" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E54" t="n">
-        <v>17514</v>
+        <v>17531</v>
       </c>
     </row>
     <row r="55">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="C55" t="n">
         <v>338</v>
       </c>
       <c r="D55" t="n">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="E55" t="n">
-        <v>18034</v>
+        <v>18067</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C56" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D56" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E56" t="n">
-        <v>18334</v>
+        <v>18374</v>
       </c>
     </row>
     <row r="57">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="C57" t="n">
         <v>433</v>
       </c>
       <c r="D57" t="n">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E57" t="n">
-        <v>20881</v>
+        <v>20920</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C58" t="n">
         <v>330</v>
       </c>
       <c r="D58" t="n">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="E58" t="n">
-        <v>21436</v>
+        <v>21483</v>
       </c>
     </row>
     <row r="59">
@@ -1559,7 +1559,7 @@
         <v>1360</v>
       </c>
       <c r="E59" t="n">
-        <v>22796</v>
+        <v>22843</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1079</v>
+        <v>1088</v>
       </c>
       <c r="C60" t="n">
         <v>184</v>
       </c>
       <c r="D60" t="n">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="E60" t="n">
-        <v>23691</v>
+        <v>23747</v>
       </c>
     </row>
     <row r="61">
@@ -1591,13 +1591,13 @@
         <v>1235</v>
       </c>
       <c r="C61" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D61" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E61" t="n">
-        <v>24610</v>
+        <v>24667</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1325</v>
+        <v>1335</v>
       </c>
       <c r="C62" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D62" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="E62" t="n">
-        <v>25599</v>
+        <v>25667</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2427</v>
+        <v>2588</v>
       </c>
       <c r="C63" t="n">
         <v>649</v>
       </c>
       <c r="D63" t="n">
-        <v>1778</v>
+        <v>1939</v>
       </c>
       <c r="E63" t="n">
-        <v>27377</v>
+        <v>27606</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2360</v>
+        <v>2429</v>
       </c>
       <c r="C64" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D64" t="n">
-        <v>1712</v>
+        <v>1782</v>
       </c>
       <c r="E64" t="n">
-        <v>29089</v>
+        <v>29388</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1588</v>
+        <v>1688</v>
       </c>
       <c r="C65" t="n">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D65" t="n">
-        <v>846</v>
+        <v>948</v>
       </c>
       <c r="E65" t="n">
-        <v>29935</v>
+        <v>30336</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2711</v>
+        <v>2786</v>
       </c>
       <c r="C66" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D66" t="n">
-        <v>1801</v>
+        <v>1880</v>
       </c>
       <c r="E66" t="n">
-        <v>31736</v>
+        <v>32216</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1936</v>
+        <v>1981</v>
       </c>
       <c r="C67" t="n">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="D67" t="n">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="E67" t="n">
-        <v>31907</v>
+        <v>32439</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3142</v>
+        <v>3192</v>
       </c>
       <c r="C68" t="n">
-        <v>857</v>
+        <v>810</v>
       </c>
       <c r="D68" t="n">
-        <v>2285</v>
+        <v>2382</v>
       </c>
       <c r="E68" t="n">
-        <v>34192</v>
+        <v>34821</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2616</v>
+        <v>2657</v>
       </c>
       <c r="C69" t="n">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D69" t="n">
-        <v>1817</v>
+        <v>1866</v>
       </c>
       <c r="E69" t="n">
-        <v>36009</v>
+        <v>36687</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3532</v>
+        <v>3593</v>
       </c>
       <c r="C70" t="n">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="D70" t="n">
-        <v>2762</v>
+        <v>2793</v>
       </c>
       <c r="E70" t="n">
-        <v>38771</v>
+        <v>39480</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4101</v>
+        <v>4167</v>
       </c>
       <c r="C71" t="n">
-        <v>1084</v>
+        <v>1055</v>
       </c>
       <c r="D71" t="n">
-        <v>3017</v>
+        <v>3112</v>
       </c>
       <c r="E71" t="n">
-        <v>41788</v>
+        <v>42592</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2927</v>
+        <v>2973</v>
       </c>
       <c r="C72" t="n">
-        <v>1023</v>
+        <v>1034</v>
       </c>
       <c r="D72" t="n">
-        <v>1904</v>
+        <v>1939</v>
       </c>
       <c r="E72" t="n">
-        <v>43692</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3515</v>
+        <v>3545</v>
       </c>
       <c r="C73" t="n">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="D73" t="n">
-        <v>2598</v>
+        <v>2643</v>
       </c>
       <c r="E73" t="n">
-        <v>46290</v>
+        <v>47174</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4992</v>
+        <v>5030</v>
       </c>
       <c r="C74" t="n">
-        <v>2220</v>
+        <v>2170</v>
       </c>
       <c r="D74" t="n">
-        <v>2772</v>
+        <v>2860</v>
       </c>
       <c r="E74" t="n">
-        <v>49062</v>
+        <v>50034</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3557</v>
+        <v>3766</v>
       </c>
       <c r="C75" t="n">
-        <v>1436</v>
+        <v>1454</v>
       </c>
       <c r="D75" t="n">
-        <v>2121</v>
+        <v>2312</v>
       </c>
       <c r="E75" t="n">
-        <v>51183</v>
+        <v>52346</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3197</v>
+        <v>3259</v>
       </c>
       <c r="C76" t="n">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="D76" t="n">
-        <v>2122</v>
+        <v>2201</v>
       </c>
       <c r="E76" t="n">
-        <v>53305</v>
+        <v>54547</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3868</v>
+        <v>3960</v>
       </c>
       <c r="C77" t="n">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="D77" t="n">
-        <v>2900</v>
+        <v>3001</v>
       </c>
       <c r="E77" t="n">
-        <v>56205</v>
+        <v>57548</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5632</v>
+        <v>5690</v>
       </c>
       <c r="C78" t="n">
-        <v>2262</v>
+        <v>2235</v>
       </c>
       <c r="D78" t="n">
-        <v>3370</v>
+        <v>3455</v>
       </c>
       <c r="E78" t="n">
-        <v>59575</v>
+        <v>61003</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4041</v>
+        <v>4098</v>
       </c>
       <c r="C79" t="n">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="D79" t="n">
-        <v>2909</v>
+        <v>2977</v>
       </c>
       <c r="E79" t="n">
-        <v>62484</v>
+        <v>63980</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6280</v>
+        <v>6309</v>
       </c>
       <c r="C80" t="n">
-        <v>1354</v>
+        <v>1365</v>
       </c>
       <c r="D80" t="n">
-        <v>4926</v>
+        <v>4944</v>
       </c>
       <c r="E80" t="n">
-        <v>67410</v>
+        <v>68924</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6407</v>
+        <v>6451</v>
       </c>
       <c r="C81" t="n">
-        <v>1576</v>
+        <v>1520</v>
       </c>
       <c r="D81" t="n">
-        <v>4831</v>
+        <v>4931</v>
       </c>
       <c r="E81" t="n">
-        <v>72241</v>
+        <v>73855</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3676</v>
+        <v>3758</v>
       </c>
       <c r="C82" t="n">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="D82" t="n">
-        <v>2650</v>
+        <v>2750</v>
       </c>
       <c r="E82" t="n">
-        <v>74891</v>
+        <v>76605</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3793</v>
+        <v>3904</v>
       </c>
       <c r="C83" t="n">
-        <v>1223</v>
+        <v>1198</v>
       </c>
       <c r="D83" t="n">
-        <v>2570</v>
+        <v>2706</v>
       </c>
       <c r="E83" t="n">
-        <v>77461</v>
+        <v>79311</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3799</v>
+        <v>3828</v>
       </c>
       <c r="C84" t="n">
-        <v>1160</v>
+        <v>1203</v>
       </c>
       <c r="D84" t="n">
-        <v>2639</v>
+        <v>2625</v>
       </c>
       <c r="E84" t="n">
-        <v>80100</v>
+        <v>81936</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3412</v>
+        <v>3460</v>
       </c>
       <c r="C85" t="n">
-        <v>1361</v>
+        <v>1345</v>
       </c>
       <c r="D85" t="n">
-        <v>2051</v>
+        <v>2115</v>
       </c>
       <c r="E85" t="n">
-        <v>82151</v>
+        <v>84051</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2615</v>
+        <v>2633</v>
       </c>
       <c r="C86" t="n">
-        <v>1580</v>
+        <v>1554</v>
       </c>
       <c r="D86" t="n">
-        <v>1035</v>
+        <v>1079</v>
       </c>
       <c r="E86" t="n">
-        <v>83186</v>
+        <v>85130</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="C87" t="n">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="D87" t="n">
-        <v>1302</v>
+        <v>1316</v>
       </c>
       <c r="E87" t="n">
-        <v>84488</v>
+        <v>86446</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4010</v>
+        <v>5629</v>
       </c>
       <c r="C88" t="n">
-        <v>2257</v>
+        <v>2529</v>
       </c>
       <c r="D88" t="n">
-        <v>1753</v>
+        <v>3100</v>
       </c>
       <c r="E88" t="n">
-        <v>86241</v>
+        <v>89546</v>
       </c>
     </row>
     <row r="89">
@@ -2120,35 +2120,73 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2322</v>
+        <v>3061</v>
       </c>
       <c r="C89" t="n">
-        <v>971</v>
+        <v>1205</v>
       </c>
       <c r="D89" t="n">
-        <v>1351</v>
+        <v>1856</v>
       </c>
       <c r="E89" t="n">
-        <v>87592</v>
+        <v>91402</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>202403</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3707</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2145</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1562</v>
+      </c>
+      <c r="E90" t="n">
+        <v>92964</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>202404</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4113</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3601</v>
+      </c>
+      <c r="D91" t="n">
+        <v>512</v>
+      </c>
+      <c r="E91" t="n">
+        <v>93476</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>137187</v>
-      </c>
-      <c r="C90" t="n">
-        <v>49595</v>
-      </c>
-      <c r="D90" t="n">
-        <v>87592</v>
-      </c>
-      <c r="E90" t="n">
-        <v>175184</v>
+      <c r="B92" t="n">
+        <v>149048</v>
+      </c>
+      <c r="C92" t="n">
+        <v>55723</v>
+      </c>
+      <c r="D92" t="n">
+        <v>93325</v>
+      </c>
+      <c r="E92" t="n">
+        <v>186801</v>
       </c>
     </row>
   </sheetData>

--- a/month_sum(total).xlsx
+++ b/month_sum(total).xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>장착대수</t>
+          <t>신규장착대수</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/month_sum(total).xlsx
+++ b/month_sum(total).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4월자료" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="C38" t="n">
         <v>526</v>
       </c>
       <c r="D38" t="n">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="E38" t="n">
-        <v>20498</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="39">
@@ -1179,7 +1179,7 @@
         <v>67</v>
       </c>
       <c r="E39" t="n">
-        <v>20565</v>
+        <v>20563</v>
       </c>
     </row>
     <row r="40">
@@ -1198,7 +1198,7 @@
         <v>313</v>
       </c>
       <c r="E40" t="n">
-        <v>20878</v>
+        <v>20876</v>
       </c>
     </row>
     <row r="41">
@@ -1217,7 +1217,7 @@
         <v>433</v>
       </c>
       <c r="E41" t="n">
-        <v>21311</v>
+        <v>21309</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C42" t="n">
         <v>211</v>
       </c>
       <c r="D42" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E42" t="n">
-        <v>21790</v>
+        <v>21789</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C43" t="n">
         <v>507</v>
       </c>
       <c r="D43" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E43" t="n">
-        <v>22042</v>
+        <v>22040</v>
       </c>
     </row>
     <row r="44">
@@ -1268,10 +1268,10 @@
         <v>623</v>
       </c>
       <c r="C44" t="n">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D44" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E44" t="n">
         <v>22142</v>
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C45" t="n">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D45" t="n">
-        <v>-161</v>
+        <v>-160</v>
       </c>
       <c r="E45" t="n">
-        <v>21981</v>
+        <v>21982</v>
       </c>
     </row>
     <row r="46">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C46" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D46" t="n">
-        <v>-142</v>
+        <v>-139</v>
       </c>
       <c r="E46" t="n">
-        <v>21839</v>
+        <v>21843</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C47" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D47" t="n">
-        <v>-183</v>
+        <v>-178</v>
       </c>
       <c r="E47" t="n">
-        <v>21656</v>
+        <v>21665</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C48" t="n">
         <v>707</v>
       </c>
       <c r="D48" t="n">
-        <v>-448</v>
+        <v>-447</v>
       </c>
       <c r="E48" t="n">
-        <v>21208</v>
+        <v>21218</v>
       </c>
     </row>
     <row r="49">
@@ -1369,7 +1369,7 @@
         <v>-45</v>
       </c>
       <c r="E49" t="n">
-        <v>21163</v>
+        <v>21173</v>
       </c>
     </row>
     <row r="50">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C50" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D50" t="n">
         <v>97</v>
       </c>
       <c r="E50" t="n">
-        <v>21260</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C51" t="n">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D51" t="n">
-        <v>-924</v>
+        <v>-922</v>
       </c>
       <c r="E51" t="n">
-        <v>20336</v>
+        <v>20348</v>
       </c>
     </row>
     <row r="52">
@@ -1420,13 +1420,13 @@
         <v>457</v>
       </c>
       <c r="C52" t="n">
-        <v>3935</v>
+        <v>3930</v>
       </c>
       <c r="D52" t="n">
-        <v>-3478</v>
+        <v>-3473</v>
       </c>
       <c r="E52" t="n">
-        <v>16858</v>
+        <v>16875</v>
       </c>
     </row>
     <row r="53">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C53" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D53" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E53" t="n">
-        <v>17035</v>
+        <v>17057</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C54" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D54" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>17531</v>
+        <v>17558</v>
       </c>
     </row>
     <row r="55">
@@ -1477,13 +1477,13 @@
         <v>874</v>
       </c>
       <c r="C55" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D55" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E55" t="n">
-        <v>18067</v>
+        <v>18095</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C56" t="n">
         <v>268</v>
       </c>
       <c r="D56" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E56" t="n">
-        <v>18374</v>
+        <v>18404</v>
       </c>
     </row>
     <row r="57">
@@ -1515,13 +1515,13 @@
         <v>2979</v>
       </c>
       <c r="C57" t="n">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D57" t="n">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="E57" t="n">
-        <v>20920</v>
+        <v>20953</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C58" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D58" t="n">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E58" t="n">
-        <v>21483</v>
+        <v>21514</v>
       </c>
     </row>
     <row r="59">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="C59" t="n">
         <v>355</v>
       </c>
       <c r="D59" t="n">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="E59" t="n">
-        <v>22843</v>
+        <v>22878</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="C60" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" t="n">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E60" t="n">
-        <v>23747</v>
+        <v>23777</v>
       </c>
     </row>
     <row r="61">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="C61" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D61" t="n">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="E61" t="n">
-        <v>24667</v>
+        <v>24703</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C62" t="n">
         <v>335</v>
       </c>
       <c r="D62" t="n">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E62" t="n">
-        <v>25667</v>
+        <v>25701</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2588</v>
+        <v>2503</v>
       </c>
       <c r="C63" t="n">
         <v>649</v>
       </c>
       <c r="D63" t="n">
-        <v>1939</v>
+        <v>1854</v>
       </c>
       <c r="E63" t="n">
-        <v>27606</v>
+        <v>27555</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2429</v>
+        <v>2390</v>
       </c>
       <c r="C64" t="n">
         <v>647</v>
       </c>
       <c r="D64" t="n">
-        <v>1782</v>
+        <v>1743</v>
       </c>
       <c r="E64" t="n">
-        <v>29388</v>
+        <v>29298</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1688</v>
+        <v>1663</v>
       </c>
       <c r="C65" t="n">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D65" t="n">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="E65" t="n">
-        <v>30336</v>
+        <v>30223</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2786</v>
+        <v>2756</v>
       </c>
       <c r="C66" t="n">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D66" t="n">
-        <v>1880</v>
+        <v>1851</v>
       </c>
       <c r="E66" t="n">
-        <v>32216</v>
+        <v>32074</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="C67" t="n">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="D67" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E67" t="n">
-        <v>32439</v>
+        <v>32298</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3192</v>
+        <v>3209</v>
       </c>
       <c r="C68" t="n">
         <v>810</v>
       </c>
       <c r="D68" t="n">
-        <v>2382</v>
+        <v>2399</v>
       </c>
       <c r="E68" t="n">
-        <v>34821</v>
+        <v>34697</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2657</v>
+        <v>2662</v>
       </c>
       <c r="C69" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D69" t="n">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="E69" t="n">
-        <v>36687</v>
+        <v>36567</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3593</v>
+        <v>3585</v>
       </c>
       <c r="C70" t="n">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D70" t="n">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="E70" t="n">
-        <v>39480</v>
+        <v>39355</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4167</v>
+        <v>4177</v>
       </c>
       <c r="C71" t="n">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="D71" t="n">
-        <v>3112</v>
+        <v>3127</v>
       </c>
       <c r="E71" t="n">
-        <v>42592</v>
+        <v>42482</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="C72" t="n">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D72" t="n">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="E72" t="n">
-        <v>44531</v>
+        <v>44423</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3545</v>
+        <v>3541</v>
       </c>
       <c r="C73" t="n">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="D73" t="n">
-        <v>2643</v>
+        <v>2648</v>
       </c>
       <c r="E73" t="n">
-        <v>47174</v>
+        <v>47071</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5030</v>
+        <v>5034</v>
       </c>
       <c r="C74" t="n">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D74" t="n">
-        <v>2860</v>
+        <v>2866</v>
       </c>
       <c r="E74" t="n">
-        <v>50034</v>
+        <v>49937</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3766</v>
+        <v>3773</v>
       </c>
       <c r="C75" t="n">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D75" t="n">
-        <v>2312</v>
+        <v>2320</v>
       </c>
       <c r="E75" t="n">
-        <v>52346</v>
+        <v>52257</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3259</v>
+        <v>3268</v>
       </c>
       <c r="C76" t="n">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D76" t="n">
-        <v>2201</v>
+        <v>2214</v>
       </c>
       <c r="E76" t="n">
-        <v>54547</v>
+        <v>54471</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="C77" t="n">
         <v>959</v>
       </c>
       <c r="D77" t="n">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E77" t="n">
-        <v>57548</v>
+        <v>57471</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5690</v>
+        <v>5664</v>
       </c>
       <c r="C78" t="n">
-        <v>2235</v>
+        <v>2230</v>
       </c>
       <c r="D78" t="n">
-        <v>3455</v>
+        <v>3434</v>
       </c>
       <c r="E78" t="n">
-        <v>61003</v>
+        <v>60905</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4098</v>
+        <v>4088</v>
       </c>
       <c r="C79" t="n">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="D79" t="n">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="E79" t="n">
-        <v>63980</v>
+        <v>63884</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6309</v>
+        <v>9327</v>
       </c>
       <c r="C80" t="n">
-        <v>1365</v>
+        <v>1372</v>
       </c>
       <c r="D80" t="n">
-        <v>4944</v>
+        <v>7955</v>
       </c>
       <c r="E80" t="n">
-        <v>68924</v>
+        <v>71839</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6451</v>
+        <v>6445</v>
       </c>
       <c r="C81" t="n">
-        <v>1520</v>
+        <v>1509</v>
       </c>
       <c r="D81" t="n">
-        <v>4931</v>
+        <v>4936</v>
       </c>
       <c r="E81" t="n">
-        <v>73855</v>
+        <v>76775</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3758</v>
+        <v>3734</v>
       </c>
       <c r="C82" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D82" t="n">
-        <v>2750</v>
+        <v>2731</v>
       </c>
       <c r="E82" t="n">
-        <v>76605</v>
+        <v>79506</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3904</v>
+        <v>3882</v>
       </c>
       <c r="C83" t="n">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="D83" t="n">
-        <v>2706</v>
+        <v>2688</v>
       </c>
       <c r="E83" t="n">
-        <v>79311</v>
+        <v>82194</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3828</v>
+        <v>3824</v>
       </c>
       <c r="C84" t="n">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="D84" t="n">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="E84" t="n">
-        <v>81936</v>
+        <v>84821</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3460</v>
+        <v>3456</v>
       </c>
       <c r="C85" t="n">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D85" t="n">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E85" t="n">
-        <v>84051</v>
+        <v>86935</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2633</v>
+        <v>2644</v>
       </c>
       <c r="C86" t="n">
-        <v>1554</v>
+        <v>1536</v>
       </c>
       <c r="D86" t="n">
-        <v>1079</v>
+        <v>1108</v>
       </c>
       <c r="E86" t="n">
-        <v>85130</v>
+        <v>88043</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2575</v>
+        <v>2579</v>
       </c>
       <c r="C87" t="n">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="D87" t="n">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E87" t="n">
-        <v>86446</v>
+        <v>89358</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5629</v>
+        <v>3349</v>
       </c>
       <c r="C88" t="n">
-        <v>2529</v>
+        <v>2209</v>
       </c>
       <c r="D88" t="n">
-        <v>3100</v>
+        <v>1140</v>
       </c>
       <c r="E88" t="n">
-        <v>89546</v>
+        <v>90498</v>
       </c>
     </row>
     <row r="89">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3061</v>
+        <v>2553</v>
       </c>
       <c r="C89" t="n">
-        <v>1205</v>
+        <v>1028</v>
       </c>
       <c r="D89" t="n">
-        <v>1856</v>
+        <v>1525</v>
       </c>
       <c r="E89" t="n">
-        <v>91402</v>
+        <v>92023</v>
       </c>
     </row>
     <row r="90">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3707</v>
+        <v>3285</v>
       </c>
       <c r="C90" t="n">
-        <v>2145</v>
+        <v>1133</v>
       </c>
       <c r="D90" t="n">
-        <v>1562</v>
+        <v>2152</v>
       </c>
       <c r="E90" t="n">
-        <v>92964</v>
+        <v>94175</v>
       </c>
     </row>
     <row r="91">
@@ -2158,35 +2158,73 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4113</v>
+        <v>3957</v>
       </c>
       <c r="C91" t="n">
-        <v>3601</v>
+        <v>1584</v>
       </c>
       <c r="D91" t="n">
-        <v>512</v>
+        <v>2373</v>
       </c>
       <c r="E91" t="n">
-        <v>93476</v>
+        <v>96548</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>202405</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2795</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1740</v>
+      </c>
+      <c r="E92" t="n">
+        <v>98288</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>202406</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>125</v>
+      </c>
+      <c r="C93" t="n">
+        <v>20</v>
+      </c>
+      <c r="D93" t="n">
+        <v>105</v>
+      </c>
+      <c r="E93" t="n">
+        <v>98393</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>149048</v>
-      </c>
-      <c r="C92" t="n">
-        <v>55723</v>
-      </c>
-      <c r="D92" t="n">
-        <v>93325</v>
-      </c>
-      <c r="E92" t="n">
-        <v>186801</v>
+      <c r="B94" t="n">
+        <v>151398</v>
+      </c>
+      <c r="C94" t="n">
+        <v>53005</v>
+      </c>
+      <c r="D94" t="n">
+        <v>98393</v>
+      </c>
+      <c r="E94" t="n">
+        <v>196786</v>
       </c>
     </row>
   </sheetData>
